--- a/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/MCS12_SP_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.373323431948196</v>
+        <v>3.8850660804054</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.27307589989248</v>
+        <v>11.74216107275319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.664555631368857</v>
+        <v>2.632713803169829</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.686605567467095</v>
+        <v>3.73417359899267</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1093438425853628</v>
+        <v>0.09720022726076741</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2151560101435837</v>
+        <v>0.2242035960232442</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05113342702366935</v>
+        <v>0.050324954366581</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.09026444503217218</v>
+        <v>0.08894244614266744</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.73110253144357</v>
+        <v>14.74618184504671</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.84846094945808</v>
+        <v>22.08767285723986</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.39504195116193</v>
+        <v>13.52722933633441</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.29972845697637</v>
+        <v>13.47420338470026</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4199130816279014</v>
+        <v>0.4209805383457146</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4757622068402012</v>
+        <v>0.4712377517071331</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2907692215774003</v>
+        <v>0.2949900364249707</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3763515865182525</v>
+        <v>0.3795542289693284</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.537509762340788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.257637341456608</v>
+        <v>7.257637341456602</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3105072927996455</v>
@@ -749,7 +749,7 @@
         <v>0.1620568563656395</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1733650602746712</v>
+        <v>0.1733650602746711</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.148545671827678</v>
+        <v>8.632097920705956</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.548564883926337</v>
+        <v>5.608507170171059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.839143041317119</v>
+        <v>3.114140090844878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.787329252326304</v>
+        <v>2.575025415345822</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1982361423890053</v>
+        <v>0.1920108049618463</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1113154098102185</v>
+        <v>0.1095251344225243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05798083779775585</v>
+        <v>0.06388804044906619</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.06011280901358131</v>
+        <v>0.05754572815308295</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.24609415569202</v>
+        <v>17.92150423231429</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.37689306500203</v>
+        <v>14.90792748259546</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.04825036084876</v>
+        <v>12.20828559656785</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11.45424651324251</v>
+        <v>11.27498642184232</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4535095951438128</v>
+        <v>0.4439030437316216</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.32096235483722</v>
+        <v>0.3292335361585738</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2676932630921285</v>
+        <v>0.2776039437320382</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2921302016481641</v>
+        <v>0.2890949578963939</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.16757148486008</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10.20118686210478</v>
+        <v>10.20118686210477</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.253903791842254</v>
@@ -849,7 +849,7 @@
         <v>0.1444937351418672</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.25366058197545</v>
+        <v>0.2536605819754498</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.855599993547039</v>
+        <v>5.945141164339065</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.576949852164157</v>
+        <v>8.334180111848605</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8912497926363419</v>
+        <v>0.4459019361324747</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.171852120808889</v>
+        <v>4.862981951041339</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1291490182271313</v>
+        <v>0.1265885915597291</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1755414551918665</v>
+        <v>0.1715038870464418</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01675021601768462</v>
+        <v>0.0109747570423752</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1198346148559535</v>
+        <v>0.110708520431731</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>16.6719933332286</v>
+        <v>16.43681654716918</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.04698208982322</v>
+        <v>19.11669611485334</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.73641828063322</v>
+        <v>11.48186524044058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15.55729794433302</v>
+        <v>15.41068965778601</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4084169309910731</v>
+        <v>0.4048679982174965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4505660617595335</v>
+        <v>0.4474294308872512</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2910176713880565</v>
+        <v>0.2883933097289906</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4318338311708732</v>
+        <v>0.4122706241543865</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.960510866536949</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9.650695073525444</v>
+        <v>9.650695073525434</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1939516588951934</v>
@@ -949,7 +949,7 @@
         <v>0.09182508114999435</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2123386447772587</v>
+        <v>0.2123386447772584</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.266473169427591</v>
+        <v>5.131422304759385</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.723716157717615</v>
+        <v>7.255207227544062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2036023355343461</v>
+        <v>0.1964719362060805</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.812214216141932</v>
+        <v>5.409231176542202</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08930032091861689</v>
+        <v>0.1032342984912243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1446779351723288</v>
+        <v>0.1320732145282102</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.003368239300247269</v>
+        <v>0.003489748164076541</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09794126789772895</v>
+        <v>0.1106502972549472</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.1703077292572</v>
+        <v>13.91897239639534</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>16.21279683435127</v>
+        <v>16.54810968443993</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.120833889411225</v>
+        <v>9.457652397091573</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.60731680734331</v>
+        <v>14.20171716558504</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2963283690005814</v>
+        <v>0.3117318865729944</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3261683422638565</v>
+        <v>0.3324634837268393</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.176161697636891</v>
+        <v>0.1834049462980787</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3191268732183352</v>
+        <v>0.335014626261014</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>6.689340601256877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.916159540194124</v>
+        <v>8.916159540194107</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2536280142677875</v>
@@ -1049,7 +1049,7 @@
         <v>0.1389227772130325</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2130632260207484</v>
+        <v>0.213063226020748</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.496454864786944</v>
+        <v>8.27186963883392</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.44198655559807</v>
+        <v>10.45094321600539</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.265131362918179</v>
+        <v>4.112293457390087</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.381742684872338</v>
+        <v>6.370846888032639</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1920058099459528</v>
+        <v>0.1845962940528817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2060325587077078</v>
+        <v>0.2084568939828933</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08506395884663068</v>
+        <v>0.08265335010452546</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1484498014621805</v>
+        <v>0.148037579957485</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.3513091884383</v>
+        <v>13.39761422977383</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.21120812748649</v>
+        <v>15.32279503468963</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.220400132376907</v>
+        <v>9.138957515115139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11.29268359351354</v>
+        <v>11.20964209321603</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3196240248528751</v>
+        <v>0.3200201187212331</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3188933761648428</v>
+        <v>0.3245198904802439</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.19553037846643</v>
+        <v>0.1954381134740267</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2813885915682004</v>
+        <v>0.2794918160215936</v>
       </c>
     </row>
     <row r="19">
